--- a/Results/SIGIR_EP_results.xlsx
+++ b/Results/SIGIR_EP_results.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrishitachakra\TU\PhD_Sole\Projects\ECIR'25\InsideOut2\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D2E1D8-7DF5-4563-B568-BD8A6F320215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="queries" sheetId="1" r:id="rId1"/>
+    <sheet name="bing" sheetId="2" r:id="rId2"/>
+    <sheet name="gemma" sheetId="3" r:id="rId3"/>
+    <sheet name="gpt" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +27,91 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="26">
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Prompt Type</t>
+  </si>
+  <si>
+    <t>Task Sentiment</t>
+  </si>
+  <si>
+    <t>Text Sample</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>anticipation</t>
+  </si>
+  <si>
+    <t>disgust</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>sadness</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>Lexical</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Semantic</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>Gemma</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +422,2023 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>15.6</v>
+      </c>
+      <c r="F2">
+        <v>16.38</v>
+      </c>
+      <c r="G2">
+        <v>68.02</v>
+      </c>
+      <c r="H2">
+        <v>13.48</v>
+      </c>
+      <c r="I2">
+        <v>5.86</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>37.08</v>
+      </c>
+      <c r="L2">
+        <v>6.55</v>
+      </c>
+      <c r="M2">
+        <v>5.08</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>11.48</v>
+      </c>
+      <c r="F3">
+        <v>11.43</v>
+      </c>
+      <c r="G3">
+        <v>77.08</v>
+      </c>
+      <c r="H3">
+        <v>5.98</v>
+      </c>
+      <c r="I3">
+        <v>4.55</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>5.18</v>
+      </c>
+      <c r="L3">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>22.73</v>
+      </c>
+      <c r="O3">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>11.53</v>
+      </c>
+      <c r="F4">
+        <v>12.33</v>
+      </c>
+      <c r="G4">
+        <v>76.14</v>
+      </c>
+      <c r="H4">
+        <v>9.09</v>
+      </c>
+      <c r="I4">
+        <v>6.06</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>8.59</v>
+      </c>
+      <c r="L4">
+        <v>3.03</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>45.45</v>
+      </c>
+      <c r="O4">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>11.29</v>
+      </c>
+      <c r="F5">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G5">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>2.97</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.82</v>
+      </c>
+      <c r="L5">
+        <v>13.65</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>44.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>26.42</v>
+      </c>
+      <c r="F6">
+        <v>73.58</v>
+      </c>
+      <c r="H6">
+        <v>10.95</v>
+      </c>
+      <c r="K6">
+        <v>27.7</v>
+      </c>
+      <c r="L6">
+        <v>26.54</v>
+      </c>
+      <c r="M6">
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>20.12</v>
+      </c>
+      <c r="F7">
+        <v>79.88</v>
+      </c>
+      <c r="H7">
+        <v>33.380000000000003</v>
+      </c>
+      <c r="K7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L7">
+        <v>28.56</v>
+      </c>
+      <c r="M7">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0.03</v>
+      </c>
+      <c r="F8">
+        <v>99.97</v>
+      </c>
+      <c r="H8">
+        <v>29.52</v>
+      </c>
+      <c r="K8">
+        <v>31.97</v>
+      </c>
+      <c r="L8">
+        <v>0.11</v>
+      </c>
+      <c r="M8">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>40.07</v>
+      </c>
+      <c r="F9">
+        <v>59.93</v>
+      </c>
+      <c r="H9">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="K9">
+        <v>3.28</v>
+      </c>
+      <c r="L9">
+        <v>55.78</v>
+      </c>
+      <c r="M9">
+        <v>2.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD0F013-2CF5-4185-8F15-C1EAA3E6E224}">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>15.55</v>
+      </c>
+      <c r="G2">
+        <v>14.68</v>
+      </c>
+      <c r="H2">
+        <v>69.77</v>
+      </c>
+      <c r="I2">
+        <v>6.65</v>
+      </c>
+      <c r="J2">
+        <v>12.16</v>
+      </c>
+      <c r="K2">
+        <v>2.85</v>
+      </c>
+      <c r="L2">
+        <v>20.09</v>
+      </c>
+      <c r="M2">
+        <v>7.28</v>
+      </c>
+      <c r="N2">
+        <v>6.07</v>
+      </c>
+      <c r="O2">
+        <v>6.9</v>
+      </c>
+      <c r="P2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>15.39</v>
+      </c>
+      <c r="G3">
+        <v>14.5</v>
+      </c>
+      <c r="H3">
+        <v>70.11</v>
+      </c>
+      <c r="I3">
+        <v>7.26</v>
+      </c>
+      <c r="J3">
+        <v>14.46</v>
+      </c>
+      <c r="K3">
+        <v>2.94</v>
+      </c>
+      <c r="L3">
+        <v>19.27</v>
+      </c>
+      <c r="M3">
+        <v>6.6</v>
+      </c>
+      <c r="N3">
+        <v>5.32</v>
+      </c>
+      <c r="O3">
+        <v>5.42</v>
+      </c>
+      <c r="P3">
+        <v>38.729999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>15.96</v>
+      </c>
+      <c r="G4">
+        <v>14.77</v>
+      </c>
+      <c r="H4">
+        <v>69.27</v>
+      </c>
+      <c r="I4">
+        <v>6.5</v>
+      </c>
+      <c r="J4">
+        <v>13.28</v>
+      </c>
+      <c r="K4">
+        <v>3.89</v>
+      </c>
+      <c r="L4">
+        <v>20.77</v>
+      </c>
+      <c r="M4">
+        <v>6.55</v>
+      </c>
+      <c r="N4">
+        <v>5.88</v>
+      </c>
+      <c r="O4">
+        <v>6.72</v>
+      </c>
+      <c r="P4">
+        <v>36.409999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>15.76</v>
+      </c>
+      <c r="G5">
+        <v>15.25</v>
+      </c>
+      <c r="H5">
+        <v>69</v>
+      </c>
+      <c r="I5">
+        <v>6.45</v>
+      </c>
+      <c r="J5">
+        <v>11.53</v>
+      </c>
+      <c r="K5">
+        <v>2.52</v>
+      </c>
+      <c r="L5">
+        <v>20.5</v>
+      </c>
+      <c r="M5">
+        <v>7.8</v>
+      </c>
+      <c r="N5">
+        <v>5.94</v>
+      </c>
+      <c r="O5">
+        <v>6.15</v>
+      </c>
+      <c r="P5">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>15.14</v>
+      </c>
+      <c r="G6">
+        <v>14.43</v>
+      </c>
+      <c r="H6">
+        <v>70.42</v>
+      </c>
+      <c r="I6">
+        <v>6.29</v>
+      </c>
+      <c r="J6">
+        <v>10.31</v>
+      </c>
+      <c r="K6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L6">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="M6">
+        <v>7.63</v>
+      </c>
+      <c r="N6">
+        <v>7.7</v>
+      </c>
+      <c r="O6">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="P6">
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>15.49</v>
+      </c>
+      <c r="G7">
+        <v>14.45</v>
+      </c>
+      <c r="H7">
+        <v>70.06</v>
+      </c>
+      <c r="I7">
+        <v>6.76</v>
+      </c>
+      <c r="J7">
+        <v>11.24</v>
+      </c>
+      <c r="K7">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="L7">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="M7">
+        <v>7.8</v>
+      </c>
+      <c r="N7">
+        <v>5.5</v>
+      </c>
+      <c r="O7">
+        <v>7.86</v>
+      </c>
+      <c r="P7">
+        <v>38.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>15.79</v>
+      </c>
+      <c r="G8">
+        <v>14.46</v>
+      </c>
+      <c r="H8">
+        <v>69.75</v>
+      </c>
+      <c r="I8">
+        <v>3.36</v>
+      </c>
+      <c r="J8">
+        <v>14.83</v>
+      </c>
+      <c r="K8">
+        <v>1.36</v>
+      </c>
+      <c r="L8">
+        <v>11.4</v>
+      </c>
+      <c r="M8">
+        <v>6.53</v>
+      </c>
+      <c r="N8">
+        <v>5.9</v>
+      </c>
+      <c r="O8">
+        <v>16.28</v>
+      </c>
+      <c r="P8">
+        <v>40.340000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>15.27</v>
+      </c>
+      <c r="G9">
+        <v>13.98</v>
+      </c>
+      <c r="H9">
+        <v>70.75</v>
+      </c>
+      <c r="I9">
+        <v>4.83</v>
+      </c>
+      <c r="J9">
+        <v>14.91</v>
+      </c>
+      <c r="K9">
+        <v>1.64</v>
+      </c>
+      <c r="L9">
+        <v>10.95</v>
+      </c>
+      <c r="M9">
+        <v>6.66</v>
+      </c>
+      <c r="N9">
+        <v>6.46</v>
+      </c>
+      <c r="O9">
+        <v>15.21</v>
+      </c>
+      <c r="P9">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>15.64</v>
+      </c>
+      <c r="G10">
+        <v>14.36</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>3.19</v>
+      </c>
+      <c r="J10">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="K10">
+        <v>1.36</v>
+      </c>
+      <c r="L10">
+        <v>11.71</v>
+      </c>
+      <c r="M10">
+        <v>5.38</v>
+      </c>
+      <c r="N10">
+        <v>6.17</v>
+      </c>
+      <c r="O10">
+        <v>14.7</v>
+      </c>
+      <c r="P10">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>16.2</v>
+      </c>
+      <c r="G11">
+        <v>14.99</v>
+      </c>
+      <c r="H11">
+        <v>68.81</v>
+      </c>
+      <c r="I11">
+        <v>3.49</v>
+      </c>
+      <c r="J11">
+        <v>13.24</v>
+      </c>
+      <c r="K11">
+        <v>1.18</v>
+      </c>
+      <c r="L11">
+        <v>11.64</v>
+      </c>
+      <c r="M11">
+        <v>7.01</v>
+      </c>
+      <c r="N11">
+        <v>5.63</v>
+      </c>
+      <c r="O11">
+        <v>16.21</v>
+      </c>
+      <c r="P11">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G12">
+        <v>14.35</v>
+      </c>
+      <c r="H12">
+        <v>69.64</v>
+      </c>
+      <c r="I12">
+        <v>2.37</v>
+      </c>
+      <c r="J12">
+        <v>13.44</v>
+      </c>
+      <c r="K12">
+        <v>1.37</v>
+      </c>
+      <c r="L12">
+        <v>10.54</v>
+      </c>
+      <c r="M12">
+        <v>6.65</v>
+      </c>
+      <c r="N12">
+        <v>6.29</v>
+      </c>
+      <c r="O12">
+        <v>16.14</v>
+      </c>
+      <c r="P12">
+        <v>43.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>15.84</v>
+      </c>
+      <c r="G13">
+        <v>14.61</v>
+      </c>
+      <c r="H13">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="I13">
+        <v>2.93</v>
+      </c>
+      <c r="J13">
+        <v>14.81</v>
+      </c>
+      <c r="K13">
+        <v>1.23</v>
+      </c>
+      <c r="L13">
+        <v>12.17</v>
+      </c>
+      <c r="M13">
+        <v>6.96</v>
+      </c>
+      <c r="N13">
+        <v>4.95</v>
+      </c>
+      <c r="O13">
+        <v>19.14</v>
+      </c>
+      <c r="P13">
+        <v>37.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>15.38</v>
+      </c>
+      <c r="G14">
+        <v>15.35</v>
+      </c>
+      <c r="H14">
+        <v>69.27</v>
+      </c>
+      <c r="I14">
+        <v>3.25</v>
+      </c>
+      <c r="J14">
+        <v>13.67</v>
+      </c>
+      <c r="K14">
+        <v>1.06</v>
+      </c>
+      <c r="L14">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="M14">
+        <v>3.54</v>
+      </c>
+      <c r="N14">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="O14">
+        <v>23.5</v>
+      </c>
+      <c r="P14">
+        <v>34.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>16.22</v>
+      </c>
+      <c r="G15">
+        <v>13.43</v>
+      </c>
+      <c r="H15">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="I15">
+        <v>3.49</v>
+      </c>
+      <c r="J15">
+        <v>15.35</v>
+      </c>
+      <c r="K15">
+        <v>1.71</v>
+      </c>
+      <c r="L15">
+        <v>6.53</v>
+      </c>
+      <c r="M15">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="N15">
+        <v>7.99</v>
+      </c>
+      <c r="O15">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="P15">
+        <v>46.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="G16">
+        <v>67.16</v>
+      </c>
+      <c r="I16">
+        <v>1.82</v>
+      </c>
+      <c r="L16">
+        <v>41.8</v>
+      </c>
+      <c r="M16">
+        <v>26.22</v>
+      </c>
+      <c r="N16">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>32.49</v>
+      </c>
+      <c r="G17">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="I17">
+        <v>1.78</v>
+      </c>
+      <c r="L17">
+        <v>40.43</v>
+      </c>
+      <c r="M17">
+        <v>26.51</v>
+      </c>
+      <c r="N17">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>29.6</v>
+      </c>
+      <c r="G18">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I18">
+        <v>3.76</v>
+      </c>
+      <c r="L18">
+        <v>43.75</v>
+      </c>
+      <c r="M18">
+        <v>22.47</v>
+      </c>
+      <c r="N18">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>31.75</v>
+      </c>
+      <c r="G19">
+        <v>68.25</v>
+      </c>
+      <c r="I19">
+        <v>1.31</v>
+      </c>
+      <c r="L19">
+        <v>42.44</v>
+      </c>
+      <c r="M19">
+        <v>23.99</v>
+      </c>
+      <c r="N19">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>34.5</v>
+      </c>
+      <c r="G20">
+        <v>65.5</v>
+      </c>
+      <c r="I20">
+        <v>0.75</v>
+      </c>
+      <c r="L20">
+        <v>39.78</v>
+      </c>
+      <c r="M20">
+        <v>28.91</v>
+      </c>
+      <c r="N20">
+        <v>30.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>35.86</v>
+      </c>
+      <c r="G21">
+        <v>64.14</v>
+      </c>
+      <c r="I21">
+        <v>1.52</v>
+      </c>
+      <c r="L21">
+        <v>42.6</v>
+      </c>
+      <c r="M21">
+        <v>29.23</v>
+      </c>
+      <c r="N21">
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>39.4</v>
+      </c>
+      <c r="G22">
+        <v>60.6</v>
+      </c>
+      <c r="I22">
+        <v>9.84</v>
+      </c>
+      <c r="L22">
+        <v>23.21</v>
+      </c>
+      <c r="M22">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="N22">
+        <v>31.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="G23">
+        <v>60.66</v>
+      </c>
+      <c r="I23">
+        <v>13.13</v>
+      </c>
+      <c r="L23">
+        <v>16.37</v>
+      </c>
+      <c r="M23">
+        <v>28.84</v>
+      </c>
+      <c r="N23">
+        <v>41.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>33.33</v>
+      </c>
+      <c r="G24">
+        <v>66.67</v>
+      </c>
+      <c r="I24">
+        <v>10.97</v>
+      </c>
+      <c r="L24">
+        <v>22.98</v>
+      </c>
+      <c r="M24">
+        <v>33.14</v>
+      </c>
+      <c r="N24">
+        <v>32.909999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>42.93</v>
+      </c>
+      <c r="G25">
+        <v>57.07</v>
+      </c>
+      <c r="I25">
+        <v>6.22</v>
+      </c>
+      <c r="L25">
+        <v>26.04</v>
+      </c>
+      <c r="M25">
+        <v>41.72</v>
+      </c>
+      <c r="N25">
+        <v>26.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>43.51</v>
+      </c>
+      <c r="G26">
+        <v>56.49</v>
+      </c>
+      <c r="I26">
+        <v>7.03</v>
+      </c>
+      <c r="L26">
+        <v>26.41</v>
+      </c>
+      <c r="M26">
+        <v>39.79</v>
+      </c>
+      <c r="N26">
+        <v>26.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>37.89</v>
+      </c>
+      <c r="G27">
+        <v>62.11</v>
+      </c>
+      <c r="I27">
+        <v>11.85</v>
+      </c>
+      <c r="L27">
+        <v>24.25</v>
+      </c>
+      <c r="M27">
+        <v>35.17</v>
+      </c>
+      <c r="N27">
+        <v>28.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>2.6</v>
+      </c>
+      <c r="G28">
+        <v>97.4</v>
+      </c>
+      <c r="I28">
+        <v>11.32</v>
+      </c>
+      <c r="L28">
+        <v>40.57</v>
+      </c>
+      <c r="M28">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="N28">
+        <v>43.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>75.459999999999994</v>
+      </c>
+      <c r="G29">
+        <v>24.54</v>
+      </c>
+      <c r="I29">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="L29">
+        <v>6.03</v>
+      </c>
+      <c r="M29">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="N29">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD45EB8-3256-4277-9FA2-DBD7BFB7582E}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>16.22</v>
+      </c>
+      <c r="F2">
+        <v>19.13</v>
+      </c>
+      <c r="G2">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="H2">
+        <v>10.19</v>
+      </c>
+      <c r="I2">
+        <v>7.22</v>
+      </c>
+      <c r="J2">
+        <v>0.33</v>
+      </c>
+      <c r="K2">
+        <v>14.86</v>
+      </c>
+      <c r="L2">
+        <v>9.48</v>
+      </c>
+      <c r="M2">
+        <v>5.59</v>
+      </c>
+      <c r="N2">
+        <v>7.94</v>
+      </c>
+      <c r="O2">
+        <v>43.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>16.16</v>
+      </c>
+      <c r="F3">
+        <v>16.72</v>
+      </c>
+      <c r="G3">
+        <v>67.12</v>
+      </c>
+      <c r="H3">
+        <v>8.41</v>
+      </c>
+      <c r="I3">
+        <v>4.91</v>
+      </c>
+      <c r="J3">
+        <v>0.51</v>
+      </c>
+      <c r="K3">
+        <v>6.46</v>
+      </c>
+      <c r="L3">
+        <v>6.39</v>
+      </c>
+      <c r="M3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N3">
+        <v>20.57</v>
+      </c>
+      <c r="O3">
+        <v>50.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>15.32</v>
+      </c>
+      <c r="F4">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="G4">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="H4">
+        <v>6.06</v>
+      </c>
+      <c r="I4">
+        <v>6.8</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10.91</v>
+      </c>
+      <c r="L4">
+        <v>4.8</v>
+      </c>
+      <c r="M4">
+        <v>1.19</v>
+      </c>
+      <c r="N4">
+        <v>28.77</v>
+      </c>
+      <c r="O4">
+        <v>41.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>16.87</v>
+      </c>
+      <c r="F5">
+        <v>16.75</v>
+      </c>
+      <c r="G5">
+        <v>66.38</v>
+      </c>
+      <c r="H5">
+        <v>11.09</v>
+      </c>
+      <c r="I5">
+        <v>2.34</v>
+      </c>
+      <c r="J5">
+        <v>1.04</v>
+      </c>
+      <c r="K5">
+        <v>2.08</v>
+      </c>
+      <c r="L5">
+        <v>8.23</v>
+      </c>
+      <c r="M5">
+        <v>2.97</v>
+      </c>
+      <c r="N5">
+        <v>12.76</v>
+      </c>
+      <c r="O5">
+        <v>59.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>40.17</v>
+      </c>
+      <c r="F6">
+        <v>59.83</v>
+      </c>
+      <c r="H6">
+        <v>3.92</v>
+      </c>
+      <c r="K6">
+        <v>21.09</v>
+      </c>
+      <c r="L6">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="M6">
+        <v>41.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>47.1</v>
+      </c>
+      <c r="F7">
+        <v>52.9</v>
+      </c>
+      <c r="H7">
+        <v>6.34</v>
+      </c>
+      <c r="K7">
+        <v>17.38</v>
+      </c>
+      <c r="L7">
+        <v>29.63</v>
+      </c>
+      <c r="M7">
+        <v>46.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>22.91</v>
+      </c>
+      <c r="F8">
+        <v>77.09</v>
+      </c>
+      <c r="H8">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="K8">
+        <v>29.34</v>
+      </c>
+      <c r="L8">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="M8">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>70.39</v>
+      </c>
+      <c r="F9">
+        <v>29.61</v>
+      </c>
+      <c r="H9">
+        <v>4.08</v>
+      </c>
+      <c r="K9">
+        <v>5.58</v>
+      </c>
+      <c r="L9">
+        <v>48.57</v>
+      </c>
+      <c r="M9">
+        <v>41.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E6F1BF-4388-4520-B967-5FD25C349511}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
